--- a/results/FrequencyTables/27974196_gGag3.xlsx
+++ b/results/FrequencyTables/27974196_gGag3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.983041706615532</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.999161073825503</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000958772770853308</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00743048897411314</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00035953978906999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000299616490891659</v>
       </c>
       <c r="J2">
-        <v>0.99</v>
+        <v>0.991670661553212</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>0.999220997123682</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000479386385426654</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999101150527325</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.999580536912752</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.998382070949185</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000239693192713327</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.947267497603068</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.999520613614573</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999820230105465</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00185762224352828</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000419463087248322</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -560,52 +560,52 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="M3">
-        <v>0.02</v>
+        <v>0.0225311601150527</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000299616490891659</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.890280441035475</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000299616490891659</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00119846596356663</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.999460690316395</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00383509108341323</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.998981303930968</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.992150047938639</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.99964046021093</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.99964046021093</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.00725071907957814</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.000779002876318313</v>
       </c>
       <c r="L4">
-        <v>0.99</v>
+        <v>0.999760306807287</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.999460690316395</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000479386385426654</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000239693192713327</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.999700383509108</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0506951102588687</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.999580536912752</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.999700383509108</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,19 +687,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000299616490891659</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0100671140939597</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -720,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.98</v>
+        <v>0.976929530201342</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000119846596356663</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.105644774688399</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000239693192713327</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.99964046021093</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000179769894534995</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000239693192713327</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00119846596356663</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>5.99232981783317e-05</v>
       </c>
     </row>
   </sheetData>
